--- a/jpcore-r4/feature/swg1-valueSet-test/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg1-valueSet-test/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T13:01:59+00:00</t>
+    <t>2022-07-05T13:18:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
